--- a/xlsx/羅馬尼亞_intext.xlsx
+++ b/xlsx/羅馬尼亞_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="895">
   <si>
     <t>羅馬尼亞</t>
   </si>
@@ -29,7 +29,7 @@
     <t>羅馬尼亞國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_羅馬尼亞</t>
+    <t>体育运动_体育运动_奥林匹克运动会_羅馬尼亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%BE%BD</t>
@@ -1454,10 +1454,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1568,10 +1592,10 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1580,6 +1604,12 @@
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -1604,10 +1634,10 @@
     <t>立陶宛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -1688,18 +1718,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1724,10 +1754,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1778,16 +1808,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -3012,7 +3048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I459"/>
+  <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10171,7 +10207,7 @@
         <v>470</v>
       </c>
       <c r="G247" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10316,7 +10352,7 @@
         <v>480</v>
       </c>
       <c r="G252" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -10345,7 +10381,7 @@
         <v>482</v>
       </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -10374,7 +10410,7 @@
         <v>484</v>
       </c>
       <c r="G254" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -10403,7 +10439,7 @@
         <v>486</v>
       </c>
       <c r="G255" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -10432,7 +10468,7 @@
         <v>488</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -10490,7 +10526,7 @@
         <v>492</v>
       </c>
       <c r="G258" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10519,7 +10555,7 @@
         <v>494</v>
       </c>
       <c r="G259" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -10548,7 +10584,7 @@
         <v>496</v>
       </c>
       <c r="G260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10606,7 +10642,7 @@
         <v>500</v>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -10635,7 +10671,7 @@
         <v>502</v>
       </c>
       <c r="G263" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10693,7 +10729,7 @@
         <v>506</v>
       </c>
       <c r="G265" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10722,7 +10758,7 @@
         <v>508</v>
       </c>
       <c r="G266" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10751,7 +10787,7 @@
         <v>510</v>
       </c>
       <c r="G267" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10780,7 +10816,7 @@
         <v>512</v>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10809,7 +10845,7 @@
         <v>514</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -10838,7 +10874,7 @@
         <v>516</v>
       </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -10867,7 +10903,7 @@
         <v>518</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -10896,7 +10932,7 @@
         <v>520</v>
       </c>
       <c r="G272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10954,7 +10990,7 @@
         <v>524</v>
       </c>
       <c r="G274" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -10983,7 +11019,7 @@
         <v>526</v>
       </c>
       <c r="G275" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -11012,7 +11048,7 @@
         <v>528</v>
       </c>
       <c r="G276" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -11070,7 +11106,7 @@
         <v>532</v>
       </c>
       <c r="G278" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -11099,7 +11135,7 @@
         <v>534</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -11128,7 +11164,7 @@
         <v>536</v>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -11157,7 +11193,7 @@
         <v>538</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11215,7 +11251,7 @@
         <v>542</v>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11244,7 +11280,7 @@
         <v>544</v>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -11273,7 +11309,7 @@
         <v>546</v>
       </c>
       <c r="G285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -11302,7 +11338,7 @@
         <v>548</v>
       </c>
       <c r="G286" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -11360,7 +11396,7 @@
         <v>552</v>
       </c>
       <c r="G288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -11389,7 +11425,7 @@
         <v>554</v>
       </c>
       <c r="G289" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -11418,7 +11454,7 @@
         <v>556</v>
       </c>
       <c r="G290" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11447,7 +11483,7 @@
         <v>558</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11476,7 +11512,7 @@
         <v>560</v>
       </c>
       <c r="G292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11505,7 +11541,7 @@
         <v>562</v>
       </c>
       <c r="G293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11534,7 +11570,7 @@
         <v>564</v>
       </c>
       <c r="G294" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -11563,7 +11599,7 @@
         <v>566</v>
       </c>
       <c r="G295" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -11592,7 +11628,7 @@
         <v>568</v>
       </c>
       <c r="G296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -11650,7 +11686,7 @@
         <v>572</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11679,7 +11715,7 @@
         <v>574</v>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -11708,7 +11744,7 @@
         <v>576</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -11737,7 +11773,7 @@
         <v>578</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -11853,7 +11889,7 @@
         <v>586</v>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -11876,13 +11912,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>123</v>
+        <v>587</v>
       </c>
       <c r="F306" t="s">
-        <v>124</v>
+        <v>588</v>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -11905,10 +11941,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F307" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11934,10 +11970,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F308" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11963,10 +11999,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F309" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11992,10 +12028,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F310" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -12021,13 +12057,13 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>123</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>124</v>
       </c>
       <c r="G311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -12085,7 +12121,7 @@
         <v>600</v>
       </c>
       <c r="G313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12172,7 +12208,7 @@
         <v>606</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12201,7 +12237,7 @@
         <v>608</v>
       </c>
       <c r="G317" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -12230,7 +12266,7 @@
         <v>610</v>
       </c>
       <c r="G318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12259,7 +12295,7 @@
         <v>612</v>
       </c>
       <c r="G319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -12288,7 +12324,7 @@
         <v>614</v>
       </c>
       <c r="G320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -12317,7 +12353,7 @@
         <v>616</v>
       </c>
       <c r="G321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12346,7 +12382,7 @@
         <v>618</v>
       </c>
       <c r="G322" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12427,13 +12463,13 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>477</v>
+        <v>623</v>
       </c>
       <c r="F325" t="s">
-        <v>478</v>
+        <v>624</v>
       </c>
       <c r="G325" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12456,13 +12492,13 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F326" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G326" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -12485,10 +12521,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F327" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12514,13 +12550,13 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F328" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G328" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12543,10 +12579,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F329" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12572,13 +12608,13 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F330" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -12601,13 +12637,13 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>633</v>
+        <v>477</v>
       </c>
       <c r="F331" t="s">
-        <v>634</v>
+        <v>478</v>
       </c>
       <c r="G331" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -12636,7 +12672,7 @@
         <v>636</v>
       </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -12665,7 +12701,7 @@
         <v>638</v>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12688,13 +12724,13 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>539</v>
+        <v>639</v>
       </c>
       <c r="F334" t="s">
-        <v>540</v>
+        <v>640</v>
       </c>
       <c r="G334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -12717,13 +12753,13 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>537</v>
+        <v>641</v>
       </c>
       <c r="F335" t="s">
-        <v>538</v>
+        <v>642</v>
       </c>
       <c r="G335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -12746,13 +12782,13 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F336" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="G336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -12775,13 +12811,13 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F337" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -12804,10 +12840,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F338" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12833,13 +12869,13 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F339" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="G339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -12862,13 +12898,13 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>647</v>
+        <v>549</v>
       </c>
       <c r="F340" t="s">
-        <v>648</v>
+        <v>550</v>
       </c>
       <c r="G340" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -12891,13 +12927,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>649</v>
+        <v>547</v>
       </c>
       <c r="F341" t="s">
-        <v>650</v>
+        <v>548</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -12926,7 +12962,7 @@
         <v>652</v>
       </c>
       <c r="G342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -13013,7 +13049,7 @@
         <v>658</v>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -13129,7 +13165,7 @@
         <v>666</v>
       </c>
       <c r="G349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -13187,7 +13223,7 @@
         <v>670</v>
       </c>
       <c r="G351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -13303,7 +13339,7 @@
         <v>678</v>
       </c>
       <c r="G355" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13361,7 +13397,7 @@
         <v>682</v>
       </c>
       <c r="G357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13384,13 +13420,13 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>231</v>
+        <v>683</v>
       </c>
       <c r="F358" t="s">
-        <v>232</v>
+        <v>684</v>
       </c>
       <c r="G358" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -13413,10 +13449,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F359" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13442,10 +13478,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F360" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13471,13 +13507,13 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F361" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G361" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -13500,10 +13536,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F362" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13529,10 +13565,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F363" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13558,13 +13594,13 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>693</v>
+        <v>231</v>
       </c>
       <c r="F364" t="s">
-        <v>694</v>
+        <v>232</v>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13767,7 +13803,7 @@
         <v>708</v>
       </c>
       <c r="G371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -13854,7 +13890,7 @@
         <v>714</v>
       </c>
       <c r="G374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -13941,7 +13977,7 @@
         <v>720</v>
       </c>
       <c r="G377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -13970,7 +14006,7 @@
         <v>722</v>
       </c>
       <c r="G378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -14086,7 +14122,7 @@
         <v>730</v>
       </c>
       <c r="G382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -14144,7 +14180,7 @@
         <v>734</v>
       </c>
       <c r="G384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -14202,7 +14238,7 @@
         <v>738</v>
       </c>
       <c r="G386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H386" t="s">
         <v>4</v>
@@ -14260,7 +14296,7 @@
         <v>742</v>
       </c>
       <c r="G388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -14405,7 +14441,7 @@
         <v>752</v>
       </c>
       <c r="G393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -14434,7 +14470,7 @@
         <v>754</v>
       </c>
       <c r="G394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -14463,7 +14499,7 @@
         <v>756</v>
       </c>
       <c r="G395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -14492,7 +14528,7 @@
         <v>758</v>
       </c>
       <c r="G396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -14521,7 +14557,7 @@
         <v>760</v>
       </c>
       <c r="G397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -14550,7 +14586,7 @@
         <v>762</v>
       </c>
       <c r="G398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
@@ -14579,7 +14615,7 @@
         <v>764</v>
       </c>
       <c r="G399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -14608,7 +14644,7 @@
         <v>766</v>
       </c>
       <c r="G400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H400" t="s">
         <v>4</v>
@@ -14637,7 +14673,7 @@
         <v>768</v>
       </c>
       <c r="G401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -14666,7 +14702,7 @@
         <v>770</v>
       </c>
       <c r="G402" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H402" t="s">
         <v>4</v>
@@ -14695,7 +14731,7 @@
         <v>772</v>
       </c>
       <c r="G403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -14724,7 +14760,7 @@
         <v>774</v>
       </c>
       <c r="G404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H404" t="s">
         <v>4</v>
@@ -14840,7 +14876,7 @@
         <v>782</v>
       </c>
       <c r="G408" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H408" t="s">
         <v>4</v>
@@ -15159,7 +15195,7 @@
         <v>804</v>
       </c>
       <c r="G419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -15240,10 +15276,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>545</v>
+        <v>809</v>
       </c>
       <c r="F422" t="s">
-        <v>546</v>
+        <v>810</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15269,10 +15305,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F423" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15298,10 +15334,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="F424" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15327,13 +15363,13 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F425" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -15356,10 +15392,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F426" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15385,10 +15421,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F427" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15414,10 +15450,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>819</v>
+        <v>555</v>
       </c>
       <c r="F428" t="s">
-        <v>820</v>
+        <v>556</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15884,7 +15920,7 @@
         <v>852</v>
       </c>
       <c r="G444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H444" t="s">
         <v>4</v>
@@ -16058,7 +16094,7 @@
         <v>864</v>
       </c>
       <c r="G450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -16116,7 +16152,7 @@
         <v>868</v>
       </c>
       <c r="G452" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H452" t="s">
         <v>4</v>
@@ -16290,7 +16326,7 @@
         <v>880</v>
       </c>
       <c r="G458" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -16325,6 +16361,180 @@
         <v>4</v>
       </c>
       <c r="I459" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>0</v>
+      </c>
+      <c r="C460" t="s">
+        <v>1</v>
+      </c>
+      <c r="D460" t="n">
+        <v>459</v>
+      </c>
+      <c r="E460" t="s">
+        <v>883</v>
+      </c>
+      <c r="F460" t="s">
+        <v>884</v>
+      </c>
+      <c r="G460" t="n">
+        <v>1</v>
+      </c>
+      <c r="H460" t="s">
+        <v>4</v>
+      </c>
+      <c r="I460" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>0</v>
+      </c>
+      <c r="C461" t="s">
+        <v>1</v>
+      </c>
+      <c r="D461" t="n">
+        <v>460</v>
+      </c>
+      <c r="E461" t="s">
+        <v>885</v>
+      </c>
+      <c r="F461" t="s">
+        <v>886</v>
+      </c>
+      <c r="G461" t="n">
+        <v>1</v>
+      </c>
+      <c r="H461" t="s">
+        <v>4</v>
+      </c>
+      <c r="I461" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>0</v>
+      </c>
+      <c r="C462" t="s">
+        <v>1</v>
+      </c>
+      <c r="D462" t="n">
+        <v>461</v>
+      </c>
+      <c r="E462" t="s">
+        <v>887</v>
+      </c>
+      <c r="F462" t="s">
+        <v>888</v>
+      </c>
+      <c r="G462" t="n">
+        <v>1</v>
+      </c>
+      <c r="H462" t="s">
+        <v>4</v>
+      </c>
+      <c r="I462" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>0</v>
+      </c>
+      <c r="C463" t="s">
+        <v>1</v>
+      </c>
+      <c r="D463" t="n">
+        <v>462</v>
+      </c>
+      <c r="E463" t="s">
+        <v>889</v>
+      </c>
+      <c r="F463" t="s">
+        <v>890</v>
+      </c>
+      <c r="G463" t="n">
+        <v>1</v>
+      </c>
+      <c r="H463" t="s">
+        <v>4</v>
+      </c>
+      <c r="I463" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>0</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1</v>
+      </c>
+      <c r="D464" t="n">
+        <v>463</v>
+      </c>
+      <c r="E464" t="s">
+        <v>891</v>
+      </c>
+      <c r="F464" t="s">
+        <v>892</v>
+      </c>
+      <c r="G464" t="n">
+        <v>1</v>
+      </c>
+      <c r="H464" t="s">
+        <v>4</v>
+      </c>
+      <c r="I464" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>0</v>
+      </c>
+      <c r="C465" t="s">
+        <v>1</v>
+      </c>
+      <c r="D465" t="n">
+        <v>464</v>
+      </c>
+      <c r="E465" t="s">
+        <v>893</v>
+      </c>
+      <c r="F465" t="s">
+        <v>894</v>
+      </c>
+      <c r="G465" t="n">
+        <v>1</v>
+      </c>
+      <c r="H465" t="s">
+        <v>4</v>
+      </c>
+      <c r="I465" t="n">
         <v>3</v>
       </c>
     </row>
